--- a/teaching_statement.xlsx
+++ b/teaching_statement.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="list of courses taught" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -208,8 +206,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,15 +243,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,122 +597,122 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -717,7 +729,7 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -737,7 +749,7 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -757,7 +769,7 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -777,7 +789,7 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -797,7 +809,7 @@
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -805,182 +817,182 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3">
-        <v>60</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="5">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3">
-        <v>60</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="5">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="3">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="5">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="5">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="5">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="5">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="3">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="5">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="3">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="5">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="3">
-        <v>30</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="5">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -988,16 +1000,16 @@
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1005,82 +1017,82 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="3">
-        <v>60</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="5">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="3">
-        <v>60</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="5">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="3">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="5">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="3">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="5">
+        <v>30</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1088,16 +1100,16 @@
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1105,82 +1117,82 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="3">
-        <v>60</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="5">
+        <v>60</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="3">
-        <v>60</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="5">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="3">
-        <v>60</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="5">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="3">
-        <v>60</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="5">
+        <v>60</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1188,16 +1200,16 @@
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>40</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1208,16 +1220,16 @@
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1228,7 +1240,7 @@
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1237,7 +1249,7 @@
       <c r="D34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>60</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1248,16 +1260,16 @@
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>60</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1268,16 +1280,16 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>60</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -1288,16 +1300,16 @@
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1307,28 +1319,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/teaching_statement.xlsx
+++ b/teaching_statement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
   <si>
     <t>2016-17</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>IIT Madras</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>mba</t>
+  </si>
+  <si>
+    <t>ma econ</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>fulltime</t>
   </si>
 </sst>
 </file>
@@ -223,15 +241,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,25 +275,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,743 +655,765 @@
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="9">
+        <v>60</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="9">
+        <v>60</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="9">
+        <v>60</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="5">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="2">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="9">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5">
-        <v>60</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="13">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5">
-        <v>60</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="11">
+        <v>60</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="5">
-        <v>60</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="11">
+        <v>60</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>30</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>30</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>30</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>30</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>30</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5">
-        <v>60</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="11">
+        <v>60</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="5">
-        <v>60</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="11">
+        <v>60</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="5">
-        <v>60</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="11">
+        <v>60</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="11">
         <v>30</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="5">
         <v>30</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="5">
-        <v>60</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="11">
+        <v>60</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="5">
-        <v>60</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="11">
+        <v>60</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="5">
-        <v>60</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="11">
+        <v>60</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="5">
-        <v>60</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="11">
+        <v>60</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="7">
         <v>40</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="7">
         <v>40</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="2">
-        <v>60</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="9">
+        <v>60</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="2">
-        <v>60</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="9">
+        <v>60</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="2">
-        <v>60</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="9">
+        <v>60</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="5">
         <v>30</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="4" t="s">
         <v>56</v>
       </c>
     </row>

--- a/teaching_statement.xlsx
+++ b/teaching_statement.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sri\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7EFB38-6BB8-4E5B-B15D-F0B00E2124B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list of courses taught" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
   <si>
     <t>2016-17</t>
   </si>
@@ -218,12 +224,24 @@
   </si>
   <si>
     <t>fulltime</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>Structured Products</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>IIM Calcutta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,6 +367,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -396,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +450,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,6 +502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,6 +1472,46 @@
         <v>56</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="5">
+        <v>30</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="5">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
